--- a/artfynd/A 978-2026 artfynd.xlsx
+++ b/artfynd/A 978-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131154306</v>
       </c>
       <c r="B2" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>131154308</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>131154307</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>131187649</v>
       </c>
       <c r="B5" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
